--- a/keywordautotest/res/testcase/test/PageElements.xlsx
+++ b/keywordautotest/res/testcase/test/PageElements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="18195" windowHeight="10170"/>
+    <workbookView xWindow="360" yWindow="195" windowWidth="18195" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="GoodsPage" sheetId="8" r:id="rId1"/>
@@ -39,20 +39,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>search-button</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索框</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkTex</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -475,14 +473,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
@@ -499,10 +497,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -516,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -530,6 +528,11 @@
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+      <formula1>"NA,ID,CSS,Name,ClassName,Xpath,LinkTex,TagName"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
